--- a/Tables/Sources/gameplay/Shop/DailySelectionConfig.xlsx
+++ b/Tables/Sources/gameplay/Shop/DailySelectionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="27930" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>double</t>
+    <t>float</t>
   </si>
   <si>
     <t>Id</t>
@@ -78,8 +78,8 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,9 +97,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,24 +149,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,92 +195,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -236,6 +229,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +256,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +388,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,145 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,26 +513,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,13 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/Tables/Sources/gameplay/Shop/DailySelectionConfig.xlsx
+++ b/Tables/Sources/gameplay/Shop/DailySelectionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="6150"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -34,9 +34,6 @@
     <t>icon名</t>
   </si>
   <si>
-    <t>icon资源</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -64,10 +61,28 @@
     <t>IconName</t>
   </si>
   <si>
-    <t>IconSource</t>
+    <t>name1</t>
   </si>
   <si>
     <t>101|20</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>name4</t>
+  </si>
+  <si>
+    <t>name5</t>
+  </si>
+  <si>
+    <t>name6</t>
   </si>
 </sst>
 </file>
@@ -75,11 +90,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,23 +113,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -135,45 +163,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +203,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -195,47 +234,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,25 +271,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +385,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,139 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,15 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -489,11 +495,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,41 +542,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,16 +557,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,15 +1082,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.70909090909091" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.7909090909091" style="2" customWidth="1"/>
@@ -1085,7 +1100,7 @@
     <col min="6" max="16380" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,119 +1116,158 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="3">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="3">
         <v>30</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="3">
         <v>68</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="3">
         <v>128</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>5</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="3">
         <v>328</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>6</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="3">
         <v>648</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:3">

--- a/Tables/Sources/gameplay/Shop/DailySelectionConfig.xlsx
+++ b/Tables/Sources/gameplay/Shop/DailySelectionConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>物品名称</t>
   </si>
   <si>
+    <t>数量</t>
+  </si>
+  <si>
     <t>价格</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
   <si>
     <t>Price</t>
@@ -90,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -113,20 +119,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,7 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,48 +140,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +178,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -218,9 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +209,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -241,6 +232,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -248,9 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,55 +277,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,37 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,79 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,32 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,9 +527,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,22 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,15 +1088,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:E10"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.70909090909091" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.7909090909091" style="2" customWidth="1"/>
@@ -1100,7 +1106,7 @@
     <col min="6" max="16380" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,158 +1122,188 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>128</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>328</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>648</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:3">
